--- a/Document/Issues.xlsx
+++ b/Document/Issues.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,6 +11,19 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>胖子只有落地才应该调用旋转的飞行姿势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子被打的动作方向应该朝向飞行方向，并随飞行方向改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -71,7 +84,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -113,7 +126,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -148,7 +161,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,15 +370,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="92.5" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Document/Issues.xlsx
+++ b/Document/Issues.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,13 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>胖子只有落地才应该调用旋转的飞行姿势</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>胖子被打的动作方向应该朝向飞行方向，并随飞行方向改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +92,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -126,7 +134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -161,7 +169,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -381,14 +389,20 @@
     <col min="1" max="1" width="92.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Issues.xlsx
+++ b/Document/Issues.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>胖子只有落地才应该调用旋转的飞行姿势</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,6 +29,10 @@
   </si>
   <si>
     <t>Fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子其中一个姿势方向错误，应该是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,8 +95,68 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2543175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3686175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="D:\user\Tencent Files\12545037\Image\C2C\I3O~}HZRIJ43@~_CK5GFNHC.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2543175" y="400050"/>
+          <a:ext cx="1143000" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -134,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -169,7 +233,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -405,9 +469,15 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>